--- a/TestData/Sample1.xlsx
+++ b/TestData/Sample1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -362,7 +362,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>

--- a/TestData/Sample1.xlsx
+++ b/TestData/Sample1.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D5414146-DE64-44A3-9CE4-3BE3FAEA71CE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Name</t>
   </si>
@@ -34,12 +35,18 @@
   </si>
   <si>
     <t>Roderick P. Weitzel</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Message</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -359,11 +366,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D2" sqref="D2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -373,15 +380,21 @@
     <col min="5" max="5" width="9.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -389,7 +402,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -397,7 +410,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
